--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/4_Ağrı_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/4_Ağrı_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DA40B19-47CD-46EB-8B7A-6E5BBC627EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AE56DAB-A5F5-45A0-9DF7-E884DF70C912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{90C813CC-2C64-440B-A4DD-DD678DB81E0F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{8F40F3C2-5CAE-4CC3-BBCB-DDC357F0A625}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -962,15 +962,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{7D99896B-F354-4568-B7CB-A25B11E1D89A}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{42936396-3166-435D-BF30-6E0180AD8C08}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{86AD137E-DB5A-46F2-A595-EF207DEA98FE}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{0C604D53-112E-44AF-A2B8-126E30DD40F3}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{0C965DED-44F4-4CDE-AE89-690597945889}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{B6CB0018-BF80-47E6-8888-BF372670305E}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{094C830A-0201-4375-BECB-88796A243BC9}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{A526F2E2-C1EC-4D95-851A-38FE161EE903}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{AFC7F4F1-A816-4013-BDED-84B68487EDF2}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{37074D6E-0F14-4F84-841E-96900C5F2B47}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E40C6D50-EF87-4DF7-8822-DB9D9238E916}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{20529A83-E1D4-4315-A01F-8644A117D670}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{F2BA044C-F927-4DF4-BA18-31406295BF80}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{21EBBB89-DF37-4B0E-837D-6D708AF0E78D}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{3A07593F-364A-4573-B371-5AE5F5904803}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{0FB2785E-E58B-4F25-966B-54C8EBA2A5CF}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{48BF1AA6-5DA9-40F1-940A-B5DAE9ED6FC4}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{2D9FFFDE-A4FF-44F2-A2BD-B8F2872B227E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1340,7 +1340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C028C7A4-AA78-4F2C-964F-C0E5004B35B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9731E24C-346D-4C98-BCCA-136859F977CD}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2628,18 +2628,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{02418B9F-6919-4295-9123-AEE61F9419B8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{60AF99C0-1CD9-4B3E-9DA5-1326955946F5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C8DD6553-D8BD-475A-9B0A-B86A2FCFE5D9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E36E31B5-2D50-4A42-B9E6-C100EA8F02F9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C66207BC-F0AE-41F0-8CB7-E74CE89BA9A8}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{160FE32D-ED65-4353-8F3D-0CFC9B0B763D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8FE0F5C3-76E1-4A3E-BF06-DBD2DF9BDFF0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{03CB191E-4820-4088-8BB2-14662D8DB389}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9A1E3EB8-008D-46D3-B57C-96B73E3B1A52}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{14BAECC0-84FE-4338-8487-9E8CA0BBFA22}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0D6D2DAE-32A6-4CAC-9925-20FD5A0DA78A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5FAD1B62-27C3-4EE5-B909-6C7B7D69EDBB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E6ADB93-D891-4EE6-B0E5-15CDB2624939}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{19F7DE70-1526-4A29-AA01-190623B92795}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{80D99128-4D3A-45F2-879B-4BE2E52EB452}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CFDB1DC5-EDB9-4A3C-A0D0-3B2A01CC37A7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{26DADF65-5564-446F-BF24-1DD4F909D938}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{895B418A-9A60-4682-B6E4-105F7E8200CC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{00D7C7CC-5EB1-424A-AEA9-A1AF5DDFC582}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3AEEB1B1-1D65-455E-8CAC-145B905C9FE5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2109EC95-5FED-4F0B-B6FD-209A86B28EC2}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B7442A72-0556-4EF8-92F8-FD177399FD78}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{619827ED-D895-4543-AC6C-89ADAE450294}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5B8678A4-641C-4B45-A71C-EC5FDD2D984B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2652,7 +2652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F760A9-22AB-41B6-8360-E69AD1FEA409}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563A9FFF-7234-4572-9B06-D38CD7DDF62F}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3969,18 +3969,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{86C5DFC6-F019-42D8-87FA-F79058554DAB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{728DD8AD-1511-481A-BC81-D5AA717A228F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3303693C-1A8F-45D8-9939-A3B660568716}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{723D8612-7734-431E-BD96-1ED18900E0A8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D01947FC-CC9E-4A13-8472-2112AF920379}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0258D3A3-88BE-412E-A413-BEC3869D2862}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{81CB1C90-E031-4A1B-AE32-A4D0CFD2D443}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2031A9B3-4BF1-48B3-9C7D-185C1046732E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{63577A4C-023C-448C-B301-58EFD163BC2B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{26DCEE71-227F-4064-9AC8-7B0EF4551391}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3518DEAB-D61D-4E50-93C9-6FACE00FFD09}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A496D0A6-5316-447C-ACDF-58F7BEE30815}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0DA0E1DE-BB49-4B71-B081-C50A060B4ECF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D55E4224-633A-4700-8818-B6CC0B1AB800}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5BD7E22D-78A3-4082-B032-61F9B4AF31FA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{68EDD299-A24B-41D1-9CFC-41C0E0F14D21}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7D4E321C-5DCE-4542-BC85-8223A5F80AF3}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{33A5CC7A-563C-499A-B881-57520C9D9DCA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E176DCF9-7619-4167-A6F1-1BDFBFFE2F89}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{46586A21-21C6-4896-B8F9-06154AF7EB9F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{93E3927B-3A76-48E5-87AF-708E019DCA98}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{161E19D8-4065-4D11-9220-CA723248E7C1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D323837B-DEEA-4A50-AD30-B9CBF491167C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ED47758E-FB85-4CEC-9898-B7012E6D12E2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3993,7 +3993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156638E6-9EEC-4C44-A814-8068D0CE16D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED05D54-0C70-498A-90C6-37D62DF6C7F8}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5306,18 +5306,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC3E1178-7A52-4BCA-8FB3-C01F8B9F42A2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0A7D2246-EA1C-4851-916F-28EFFD4EC616}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5BFB0029-C0AE-4870-9998-B313583DFCB8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{916A215C-9085-4C4E-994B-B24B9E5BC2D7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7227E3E0-01E0-4BF1-99D3-1BDB111CEFCC}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D113A838-4A11-405C-946E-43B053CA3EB1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1B35BC95-9334-4A7E-9CD2-B1033F8BAB7B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EE1FE32C-9AA5-442F-AABC-AC50ADC44265}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{49DE6D61-33D4-4393-A837-5A5F5FF654F1}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D9BBFE3C-ECFC-4220-AAB7-52774C37852B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9B813E52-5492-4026-A664-DEF8E57C8D32}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EF64F1A1-3AE5-4236-A3F7-FB2457A5C3D9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6AE0D772-16D7-467F-AA8E-75A0353BB9C5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B8FA4586-E226-4C8C-BD42-E010DD380DD7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{963C50E8-4156-4A9E-A0B8-64178A91DD6B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3DA4CFF3-BEBD-406D-9D87-7E3C009AAD92}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{82BD5572-A9FC-4B0A-974C-4E5A0326C14D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E73CE1C1-2A82-47B2-AF6E-2600DAB523E9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{346A2757-6EB6-4B63-A583-4EF4F56B7330}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E145AD25-880A-436B-AF6F-B778489AD1E5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{58E703A3-4758-4A44-B0DB-C5768B842DB7}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3C4A2125-4EC9-463D-B2AD-5BE70C3B6BEA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C2339A38-0E2E-45FA-A3E1-484B0C98B3A9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CC28AA50-259D-48E1-9DF7-D6722B0EE1B0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5330,7 +5330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE4D5C8-5861-4468-BC90-57229B8AD2E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736E0336-E2A0-4DE3-94EB-D65F5D39CC2F}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6617,18 +6617,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{62C28107-45EC-4432-B692-8A3CA3AE910F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2C9F11AD-54A8-4827-89A0-CBC44DEFFC43}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0743D35F-C68D-4479-AEB8-FEC03ADCE451}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3936ABCB-21AD-4475-AF30-6804C4C53822}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3FC18A62-9166-42AF-9973-39A0063878AD}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FFD579F9-3CEA-4943-9B8A-5A83FD92A82D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C44E4354-5280-4EF3-919A-FFF71ACF966F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{80D2DFC2-E197-43DD-90E3-115639DB18D3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D5FE7B18-7C33-45DC-80F7-1033BDCEE366}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5FADEF4E-AC3B-4AA5-94E4-7A0CBC897F5F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{896341D0-8A4D-4CCC-9908-6150866F3788}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4E466F2B-1547-4023-AF26-D9535EECEE16}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{197B3228-46F6-46F7-9694-47DB7B7C93A1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4478576-2FA4-46EA-8699-3E14DBFBB9C8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6CC81D1C-B64F-482A-BAE6-B4DEF18ACADE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2052A493-F258-4FF7-A001-9D26BCCB9791}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6C8E05E9-2E54-4E0C-9CCF-C929FB76438F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0F953096-AA1C-48F1-B1C1-5DAFE1CEBB25}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DC10ED55-FF7F-40F2-B7F9-D37D1DAC0168}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4CDC38E0-1D8D-452E-AF7D-527AF23ADE58}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B8657837-81DC-4ED0-9CE9-A20B1225E5D8}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0019EA82-6469-4C05-AE14-E68A733DDBAC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BC8CAF34-6FD9-4B89-806A-3BF912E85B77}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7B7E672C-D5F1-4A41-83C5-D060E55230FA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6641,7 +6641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC46822-47C4-4ED0-B174-6730FF60C93E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289495E7-9244-4D7C-B9FC-DE4BC41CB925}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7931,18 +7931,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DB20EBEC-5248-4EDE-BF9D-99459AFCF106}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6BD6C435-F1E0-462A-8C45-08D4BA1ED346}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F2996D28-1EED-418F-83BB-EF5F1A7126B2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{14977BD1-7CB4-42F3-A32A-73A418EEC5E7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{225E9C7E-B0BD-4B30-87BE-7F9EB79BFCD3}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4840762E-8B7D-4B95-B894-525D1F0306CC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1BB14771-8608-4171-864C-CB8D5F60C396}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E19676EE-3713-4D3F-BBBC-95D1BBCBDE75}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3B992B6A-122A-43F3-A269-BB3F17375920}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{242F9C7C-46EF-4825-8BA3-0F5513ED1F0A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ADAFEC68-2D1B-4DBC-9DD1-3394519136C9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4B2675E0-6CEA-48C4-9CDD-569A2F8809F4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E6DDE120-CB34-4136-AC2D-FA0DCBC98438}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C14C5DEC-916D-4143-89A7-150478CD7382}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{43ACA60B-06C1-4A01-AB87-F272266E89C3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{71FF147C-241B-4ADE-8703-E0F870363BC6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{443979A7-2CEB-49B5-B462-7F1CC4D78C57}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0E460494-EC80-4278-B348-F2560481EC06}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F4CF8F05-237B-4860-BE0B-CCB474B1D61C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D7D16AA4-DB02-4F5B-AE94-1000B9841ED7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F2CD7ADC-A3A1-43F3-B188-FC968FF46D4F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F4970350-80C0-4F26-B823-19005AC5B5A8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0AC7BF9A-BD00-4FC9-9E3C-B63B8EF08C70}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DC8816A0-0B4C-45E9-AECC-5EFC663FA3C5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7955,7 +7955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7A1287-1544-4479-893E-AB5B5A3FE0D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98388C2-FA38-4DF1-BD90-D028F47C6116}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9245,18 +9245,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3FB15D5D-8F44-4068-BB44-336C6F30007E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A1BFB9D5-EEF9-48C9-850C-59B83454FA3A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{524ECECE-1343-4553-8759-97B830A17F80}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CDABB0CF-A496-40F7-B47F-76D43C2C07A0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3C9E5B2D-AF9A-40C2-A50E-B608DC5E613D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AE1F1006-4C9E-4A9A-A88C-FE10AFD8CD23}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DB65105F-0BA8-4779-B34B-1FB46D84D070}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6FB01291-6499-490C-8549-8768A0E830F3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8A9AF357-6207-4FF2-A6F6-1A37A795A282}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9DD0AF51-7C39-4EC9-A3BE-D170E39684AF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{20639211-2A86-4B0C-AA70-1D8BE179BBA6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8B281598-8645-4C75-A6CF-11BFCBA9FDC7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{66664FB9-5AFB-4079-899A-22C822C38CD4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A431E13-FF06-4A4B-A7A1-CF8764C582E4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C875E184-9114-4225-A213-E0C2B565C948}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0A38BFF5-A259-4898-AE0F-B5195531B29B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5E875F1E-7531-4603-9D2D-45823468FDF9}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{703C9CBF-4E9A-4EE2-8E33-683CC36D639D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{543DAA5A-6E80-432D-804C-00A5074CDCDD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{930B81C4-5B6F-4239-A291-FF2604D99BA7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{481C86C1-7CAB-48BE-AFD8-1DE66B5B7A5D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C1BDD020-E96C-44C6-8C82-A4402AE111DD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{21933DE5-9ADA-488B-8CD7-4E96901DA46D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{98AE02A3-FEB1-4D02-8E85-CEADCC24E403}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9269,7 +9269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C798D599-3728-4629-AF1A-B3E71BCAC944}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CA910B-F1AC-4361-9343-2472432B16BF}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10559,18 +10559,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C485FF99-05DD-466D-97DE-6C612FCB55BD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EC644BED-CDB9-436E-A452-AA71DE14E2AD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6BF3BDB1-0BEB-4980-86DF-74574B18E74D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4526065C-B626-47AF-9790-9FEE8492019A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{83B43CB1-81B4-4366-933E-27B9A00E09BF}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1C2E7081-8B15-40C8-9194-36E73E712EF5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4173F3CC-2899-47AA-A1F2-B87EF927B0B5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5B834132-BEA9-4D26-BAD1-AC1C168F44A6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B90C38A9-4617-4B44-B4B4-17E6B0C1D914}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{ED7D95F7-80E8-471A-8B4A-A7CC7E4C4990}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7BC46D4-64FF-4527-B0E2-42C9249911F1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{71F73284-1D2A-4700-96C7-FC01715DE0C1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{48ED215E-604A-46AF-968F-8D02851642D1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9B7D5EBA-5BE2-4BB5-8123-9D96D1293191}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{23EAA9E4-12A0-42E3-B74A-024C52ADDA2E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5709B8BA-08B5-4E93-8DD8-7BCB6A32758B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E796230A-8BFA-4971-AEBA-44321807796D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{36826D04-0F45-4656-BE77-368541CED768}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{531D3D21-6E1E-4713-8E8F-1F4A54025FF9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{05539112-5BBE-434F-8373-131D818125C0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{58C40839-CA94-4BF3-8E7A-192A9B14E73C}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{06EB3003-380C-4C5D-862D-9ACC5FF50CBB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AC7C7C55-DB43-4481-8AD4-A1C792A2876E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{82411055-4A2C-4391-9F61-9D81F8B98509}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10583,7 +10583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112B95A3-5AC0-4406-A3D1-1FA3231A5353}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485E50E8-7BEA-4ADA-8B40-02BFA7B7817F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11873,18 +11873,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DCF35B04-66A5-4A6D-8C55-CD5F6E003C13}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A9881349-5FA6-4070-B8F8-C00622416FC2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1E4E0AE7-C770-4E4D-A59D-5A3FD51E3A8A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{663D1608-26B3-40D0-9203-8C96EC985075}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{03CF05DC-DEF6-47AB-911C-03E29883C5E0}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4C73ACAB-5276-41AC-8193-6541D73309B5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{88903854-AD40-4C3B-916B-6A0AEF4536F6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{331CB6E2-A7C0-4D2A-A0AE-81675641DBB4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{20A112B4-83BF-427B-88BF-D2C2478CB6ED}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2F71BC9A-00A8-4C83-AC97-65B6D56A86A2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7688AFE-B602-47CA-9D24-16BCDDF35E32}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{58B59F5F-C9E7-4018-A0A0-ADE4C8F2360E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{90B14F10-E321-4CAD-9175-54244C8FF67A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{854EC569-D81D-4326-8CB7-D4811BFF88D1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5D5DC087-A928-418D-A994-1B2169BB1C24}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BAF512D6-B0BC-4D23-A7C8-42F17830E748}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8E2BFECA-2CFD-4A1B-BD53-822ABBAAA4A0}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3AC45053-D8B9-4193-BB66-B0ABE4F57FB7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C6204D1-1DA1-41CD-BA5F-C32357922FB1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D048A8D8-A0C5-4CE1-919C-4DB6634F322F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0592BED1-9CBF-4D3A-B021-FD177831B19A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{42C97D79-7475-4987-8065-47BDA79925C7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{87716D8C-4923-48FC-AD9A-73DB8BDE1AD3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D965E38A-D85B-45CF-8243-62889BFFDCA5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11897,7 +11897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141D937A-C515-48BB-9DAD-9EB2E144196D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011B7312-8D73-4DD7-B2EC-78522A4F124A}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -13180,18 +13180,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1453E9A6-ED8E-4AEC-AE1F-2BE2A7D85CF5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{87BE2EF7-74AD-492D-9FA8-8BF9492C82DC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8729F7D0-BFE6-45E1-95C7-F7174DB2B2C8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1FE6BCF8-AF10-46C0-B323-C161738DE229}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B41AE264-D88F-4754-A594-7832A9304EFF}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8047376C-FD76-4816-B01A-501BA135F28F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DFE36CA4-D066-4873-AD70-1188D766AD9C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5F7B04D7-26A8-4AB3-8E18-3535A552CF14}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5245ECA3-754C-44B9-AAF8-4224F86A792E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{74F570AC-8DE0-4137-AEBD-9878DA31186B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C3669043-64C7-4A76-A2E4-7833B6C91E22}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BD91F45D-B56B-4306-9AB4-93CB943AB6F8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{74C1CCA3-AE25-4C60-87E9-3C42E3D1ACA5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{979C7066-E4F4-45B6-B19E-9311CF8030A3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{34575F29-DE15-4824-AB19-43EEF294BC20}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4EDDE43A-C7D9-4F32-AA05-867A1482BDF1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{18E04D50-FFF7-41A9-8F54-DCA01B147F01}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{588CCEDD-7890-4E62-9F98-48FFEF4777DC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{67B1D30E-34D5-4603-B663-63F863836A2F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7DD63BFA-2D3A-4E53-B030-D8190FE357BC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{09897D07-7E58-4F05-91C7-2271B8C3FC73}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{30EBD509-F732-43B2-A4E8-8ADCD5A00623}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BAFE1216-A30B-4E4D-8C33-75853AA096A8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A80C3089-4E71-45E8-97BE-759DDDD66F7C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13204,7 +13204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497B5E8B-9C61-42F0-8108-FB2608330E09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BFE233-8288-4300-8730-3822774FC12B}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -14531,18 +14531,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{74CD85A8-697E-470A-89D7-7448172FED0C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{607FFC68-2BF6-414D-A912-0C47233DE955}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{19F8B53F-A2E6-435D-9FB6-EA3D504B5751}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{61F95AA3-19BA-4242-8D25-89B72935188F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AEBF10C7-0C28-4BC0-A5B0-8167C630C56B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{14598606-8D08-45D8-B56A-F65C72A529C7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9D3F24F8-0BE0-4127-93A4-29356AED37AF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{824B38C9-347B-41B9-B507-E77C485AADF6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E0D1E3B4-21DB-4AF2-AFFF-561F76C46F18}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{47388AD0-80E9-46AF-B06A-DECB69EB4004}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5956E6E9-4A5B-4D54-928B-73E799B973F8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0088C0E0-9D16-4DFC-923A-905806FF2E26}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{494DD4C6-80B2-49F6-A498-A68422E59448}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9EA7F349-7115-4613-8769-9D6916FA3857}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{339275A2-5F65-4073-A4BA-BA304B8261C8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FBB57CA6-795A-406E-9259-9542713E9E28}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CB1BB618-739D-4D9C-9827-1B2889046B9D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DF18034E-9DFD-4134-AF87-F99BF04268F2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0F11F119-F28A-4D65-B3EC-004D148B12C4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BA78D510-5532-4BDB-92DB-5228C36E0621}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0D6311CD-EFDE-4DDF-BEC5-6C42383C004B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{317E2DB2-3DCD-4989-AA7E-B397895F916E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1E926562-147A-4B67-B068-B87226A8966B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B66C5E23-102A-4EC5-9618-5EA4AE109AD8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14555,7 +14555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C39714F-D9AD-436E-917E-DE6FE0EB76C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1825F8B-BDE0-410F-BD41-14A710CDBAAA}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -15882,18 +15882,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0BEC26F7-0D12-45C7-8B3C-118E56362F2E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC3BDA3E-9A9D-4B33-9B33-07D805769EC6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EB2C3F79-4AC1-4A57-A08C-7EC985F18400}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{31E0F935-50D6-48D7-866E-C50461B1FD71}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A1F66806-A45A-4ECC-B38B-6DE8500954EB}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CE011BE4-BEE9-4D0A-895C-2EF1E3DC20D3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{940FC3E5-2EF0-4A5A-B290-D24B04A158FA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E119B56B-55CE-44BF-8558-CC2DA79AD485}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ED2E8839-9C38-4C00-8772-CF4818668570}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4FBD41F3-E4D4-45AD-BC61-372E2825852D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D9167D9E-69F1-47CA-A415-CCFC09BE769E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{01E1948D-5179-4A17-8488-9C7905EA2BEE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DEF07269-43D9-4E80-BF28-1B459BC742BD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7CFFF3AF-1206-4D74-9F46-CCD4DECD80DC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8254EF2B-AD0F-4C01-81E0-F0F82B7BC028}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A87EE83C-FA71-4FED-AFE1-D2549E7882A1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6AF0897F-D3E2-4AC3-B6D3-745E7516418F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D48689A7-5B16-4927-914D-E52E04FEED95}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17CAD177-5D63-419F-98E6-14E9BDC5C7BD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{042CBD99-E322-4F33-AAFC-34626A07C687}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DE6A27B4-0295-4426-AFB8-EA1C7B2FAFAB}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{250F01E4-F604-4FC4-86EC-CD0D7393F181}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{929723F2-A259-4946-9067-0DB2417B4EE1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6CDA6924-5AB4-4ACB-9CE0-FA76818E45D4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15906,7 +15906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF81DA4-C421-4F70-86CD-C6F6F68123E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6828420E-C481-429C-91B4-957F1DB94B1B}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -17231,18 +17231,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{726FB4B8-4067-4431-B199-172C794D99C1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E162D1B7-FC05-4E35-A6A5-BAE0FF259158}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A67C8E04-DB9C-4222-94F5-EF770C0BDC08}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{077ADCE4-A3B0-4F23-8583-1DB851D1821B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B270DBC6-FC7C-4193-9095-08FEBEFB14C7}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{16585174-1A94-4D84-BCE3-144F701165F8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{67C326B4-A41C-4C17-BE80-8FD7D5FFADB2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{69033E2F-3E28-4AE7-A7BD-1FE35EC5071E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0F213A31-75FE-46BD-8DF1-71E0C6D3EDF5}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D21EF3EF-B48D-43E0-BA20-B9F9A3102D31}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{35BE9999-ED4B-420B-A694-424B6099FB91}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4D25318F-0DFB-476B-A99B-6C141DEDBB35}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{70ECAFEC-972D-47F7-9E06-4F7F4729BC60}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ECC78007-F2AD-4806-8E2C-FA4B083B9403}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CB9634A7-4C0E-4DF2-AE04-58B65EA182E1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EEBC67DE-3BE9-4EF7-A2DB-43A7D3DE833C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7AF84DFB-8F43-4DEA-B33E-0DDD9AB4EE15}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EAF1A485-3FC6-4FE9-9323-BD08B62F8354}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0711AD0C-0FE4-4CA0-B90F-54E8B68DB6D7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{85A4C615-ABBB-4B68-90D4-A42E13411F9E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F5262F3D-35AB-4BB8-BE6B-CAC86AB66283}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{73444161-5440-4474-86EF-0F650057A623}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F60200D6-7A2B-4A3E-AF22-3650859F68D8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6C152956-BDCC-4437-A6F1-F62BFC43D546}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
